--- a/scripts/excelread/taoist_lang_vol.1.05.xlsx
+++ b/scripts/excelread/taoist_lang_vol.1.05.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1037">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="1039">
   <si>
     <t>ZH</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1181,9 +1181,6 @@
   </si>
   <si>
     <t>AUTO SPILL</t>
-  </si>
-  <si>
-    <t>KANSELLER</t>
   </si>
   <si>
     <t>Angi antall avspillinger</t>
@@ -2707,9 +2704,6 @@
     <t>Modalità di spin automatico</t>
   </si>
   <si>
-    <t>CANCELLA</t>
-  </si>
-  <si>
     <t>INIZIA</t>
   </si>
   <si>
@@ -2880,10 +2874,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>START</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Autoplay Session Loss Limit(x Bet)</t>
   </si>
   <si>
@@ -2901,10 +2891,6 @@
   </si>
   <si>
     <t>AUTOMAATTINEN TOISTO</t>
-  </si>
-  <si>
-    <t>REDERA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Automatische Wiedergabe Session Einzel Win Limit (x Bet)</t>
@@ -3389,6 +3375,25 @@
   <si>
     <t>ui_label_RTPTitle</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVBRYT</t>
+  </si>
+  <si>
+    <t>ANNULLA</t>
+  </si>
+  <si>
+    <t>STARTA</t>
+  </si>
+  <si>
+    <t>НАЧАТЬ</t>
+  </si>
+  <si>
+    <t>AVVIA</t>
   </si>
 </sst>
 </file>
@@ -3629,7 +3634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3720,12 +3725,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4178,8 +4199,8 @@
   <dimension ref="A1:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A59" sqref="A59"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="B69:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4220,10 +4241,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4231,34 +4252,34 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>336</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4278,22 +4299,22 @@
         <v>337</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4313,22 +4334,22 @@
         <v>338</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4348,22 +4369,22 @@
         <v>339</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4383,22 +4404,22 @@
         <v>340</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4406,7 +4427,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>182</v>
@@ -4418,22 +4439,22 @@
         <v>341</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4441,7 +4462,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>183</v>
@@ -4453,22 +4474,22 @@
         <v>342</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4488,22 +4509,22 @@
         <v>343</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4511,7 +4532,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>185</v>
@@ -4523,22 +4544,22 @@
         <v>344</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4558,22 +4579,22 @@
         <v>345</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4593,22 +4614,22 @@
         <v>346</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4628,22 +4649,22 @@
         <v>347</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4651,7 +4672,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>189</v>
@@ -4663,22 +4684,22 @@
         <v>340</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4698,22 +4719,22 @@
         <v>341</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4733,22 +4754,22 @@
         <v>342</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4768,22 +4789,22 @@
         <v>343</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K17" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4791,34 +4812,34 @@
         <v>24</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>344</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4826,7 +4847,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>190</v>
@@ -4838,22 +4859,22 @@
         <v>348</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K19" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4861,69 +4882,69 @@
         <v>26</v>
       </c>
       <c r="B20" s="22" t="s">
+        <v>982</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>956</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>985</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>986</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>960</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>989</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="F20" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>990</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>991</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>587</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>994</v>
-      </c>
       <c r="J20" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K20" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
+        <v>978</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>982</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>986</v>
-      </c>
       <c r="C21" s="22" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E21" s="22" t="s">
+        <v>984</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>951</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>988</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>955</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>992</v>
-      </c>
       <c r="H21" s="23" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K21" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4934,7 +4955,7 @@
         <v>138</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>260</v>
@@ -4943,22 +4964,22 @@
         <v>349</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K22" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -4966,7 +4987,7 @@
         <v>28</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>191</v>
@@ -4978,22 +4999,22 @@
         <v>350</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5001,7 +5022,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>192</v>
@@ -5013,22 +5034,22 @@
         <v>351</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K24" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5048,22 +5069,22 @@
         <v>352</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K25" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5074,7 +5095,7 @@
         <v>140</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>264</v>
@@ -5083,22 +5104,22 @@
         <v>353</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5106,69 +5127,69 @@
         <v>32</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>265</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>996</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>998</v>
+      </c>
+      <c r="H27" s="23" t="s">
         <v>1000</v>
       </c>
-      <c r="G27" s="22" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H27" s="23" t="s">
-        <v>1004</v>
-      </c>
       <c r="I27" s="23" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="J27" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K27" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="F28" s="22" t="s">
+        <v>995</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>999</v>
       </c>
-      <c r="G28" s="22" t="s">
-        <v>1003</v>
-      </c>
       <c r="H28" s="23" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="I28" s="23" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="J28" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K28" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5176,7 +5197,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>195</v>
@@ -5189,24 +5210,24 @@
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I29" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K29" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -5217,10 +5238,10 @@
       <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K30" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5228,7 +5249,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>196</v>
@@ -5240,22 +5261,22 @@
         <v>355</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="J31" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K31" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5263,7 +5284,7 @@
         <v>35</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>197</v>
@@ -5275,22 +5296,22 @@
         <v>356</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K32" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5298,7 +5319,7 @@
         <v>36</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>198</v>
@@ -5310,22 +5331,22 @@
         <v>357</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="J33" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K33" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5333,7 +5354,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>199</v>
@@ -5345,22 +5366,22 @@
         <v>358</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="J34" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K34" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5368,10 +5389,10 @@
         <v>38</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D35" s="22" t="s">
         <v>271</v>
@@ -5381,24 +5402,24 @@
       </c>
       <c r="F35" s="22"/>
       <c r="G35" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I35" s="23" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="J35" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K35" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -5409,10 +5430,10 @@
       <c r="H36" s="23"/>
       <c r="I36" s="23"/>
       <c r="J36" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K36" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5423,7 +5444,7 @@
         <v>141</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>272</v>
@@ -5433,24 +5454,24 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H37" s="23" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I37" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K37" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -5461,10 +5482,10 @@
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
       <c r="J38" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K38" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5484,22 +5505,22 @@
         <v>361</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J39" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5519,22 +5540,22 @@
         <v>362</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5554,27 +5575,27 @@
         <v>363</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K41" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>145</v>
@@ -5589,22 +5610,22 @@
         <v>364</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J42" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5618,28 +5639,28 @@
         <v>204</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K43" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5647,69 +5668,69 @@
         <v>44</v>
       </c>
       <c r="B44" s="22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>1010</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="G44" s="24" t="s">
         <v>1011</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="H44" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="I44" s="26" t="s">
         <v>1012</v>
       </c>
-      <c r="E44" s="22" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H44" s="25" t="s">
-        <v>605</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>1016</v>
-      </c>
       <c r="J44" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K44" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C45" s="22" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G45" s="24" t="s">
         <v>1017</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="H45" s="25" t="s">
         <v>1018</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="I45" s="26" t="s">
         <v>1019</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G45" s="24" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>1022</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>1023</v>
-      </c>
       <c r="J45" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K45" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5723,28 +5744,28 @@
         <v>221</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J46" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K46" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5752,7 +5773,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>205</v>
@@ -5764,22 +5785,22 @@
         <v>366</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J47" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K47" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5790,31 +5811,31 @@
         <v>148</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>278</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I48" s="13" t="s">
         <v>278</v>
       </c>
       <c r="J48" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K48" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5834,22 +5855,22 @@
         <v>368</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="J49" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5869,162 +5890,162 @@
         <v>369</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J50" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J51" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="31" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="I52" s="22" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="J52" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K52" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="31" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>1028</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>1032</v>
-      </c>
       <c r="G53" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="31" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="J54" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K54" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6044,22 +6065,22 @@
         <v>370</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J55" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K55" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6073,28 +6094,28 @@
         <v>194</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>371</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J56" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K56" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6114,22 +6135,22 @@
         <v>372</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K57" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6149,22 +6170,22 @@
         <v>363</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J58" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K58" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6172,34 +6193,34 @@
         <v>54</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C59" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J59" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K59" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6213,28 +6234,28 @@
         <v>210</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>373</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I60" s="11" t="s">
         <v>208</v>
       </c>
       <c r="J60" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K60" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6257,19 +6278,19 @@
         <v>211</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J61" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K61" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6283,7 +6304,7 @@
         <v>212</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>375</v>
@@ -6292,19 +6313,19 @@
         <v>283</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="J62" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K62" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6315,31 +6336,31 @@
         <v>157</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>376</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I63" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6359,22 +6380,22 @@
         <v>377</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>213</v>
       </c>
       <c r="J64" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K64" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6394,22 +6415,22 @@
         <v>378</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J65" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6423,28 +6444,28 @@
         <v>215</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J66" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6464,22 +6485,22 @@
         <v>372</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J67" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K67" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6502,68 +6523,68 @@
         <v>216</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J68" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K68" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>839</v>
+      <c r="D69" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="G69" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="H69" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>1035</v>
       </c>
       <c r="J69" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="32" t="s">
         <v>162</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>894</v>
+        <v>218</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>218</v>
+        <v>1036</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>218</v>
@@ -6571,20 +6592,20 @@
       <c r="F70" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G70" s="8" t="s">
-        <v>518</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>622</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>840</v>
+      <c r="G70" s="32" t="s">
+        <v>517</v>
+      </c>
+      <c r="H70" s="33" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>1038</v>
       </c>
       <c r="J70" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6601,25 +6622,25 @@
         <v>286</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="J71" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6630,31 +6651,31 @@
         <v>164</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="D72" s="8" t="s">
         <v>287</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="J72" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6671,25 +6692,25 @@
         <v>288</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="I73" s="11" t="s">
         <v>220</v>
       </c>
       <c r="J73" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6700,31 +6721,31 @@
         <v>166</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>278</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I74" s="11" t="s">
         <v>278</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K74" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6738,28 +6759,28 @@
         <v>221</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J75" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K75" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6770,31 +6791,31 @@
         <v>167</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>289</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="J76" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K76" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6805,31 +6826,31 @@
         <v>168</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>290</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H77" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="J77" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K77" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6840,31 +6861,31 @@
         <v>169</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>291</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H78" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="J78" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K78" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6881,25 +6902,25 @@
         <v>292</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6916,25 +6937,25 @@
         <v>293</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H80" s="11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K80" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="81" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6957,19 +6978,19 @@
         <v>224</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H81" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I81" s="11" t="s">
         <v>224</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K81" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6977,34 +6998,34 @@
         <v>77</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>295</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K82" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7012,34 +7033,34 @@
         <v>78</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D83" s="15" t="s">
         <v>296</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J83" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K83" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7047,7 +7068,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>225</v>
@@ -7056,25 +7077,25 @@
         <v>297</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H84" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J84" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K84" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7082,7 +7103,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C85" s="9" t="s">
         <v>226</v>
@@ -7091,25 +7112,25 @@
         <v>298</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J85" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K85" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7117,7 +7138,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C86" s="9" t="s">
         <v>227</v>
@@ -7126,25 +7147,25 @@
         <v>299</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J86" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K86" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="87" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7152,7 +7173,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C87" s="9" t="s">
         <v>228</v>
@@ -7161,25 +7182,25 @@
         <v>300</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J87" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K87" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="88" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7187,7 +7208,7 @@
         <v>83</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C88" s="9" t="s">
         <v>229</v>
@@ -7196,25 +7217,25 @@
         <v>301</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J88" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="89" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7222,7 +7243,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C89" s="9" t="s">
         <v>230</v>
@@ -7231,25 +7252,25 @@
         <v>302</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H89" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J89" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="90" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7257,7 +7278,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C90" s="9" t="s">
         <v>231</v>
@@ -7266,25 +7287,25 @@
         <v>303</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J90" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K90" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="91" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7292,7 +7313,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C91" s="9" t="s">
         <v>232</v>
@@ -7301,25 +7322,25 @@
         <v>304</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J91" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K91" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="92" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7327,34 +7348,34 @@
         <v>87</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C92" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>305</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J92" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K92" s="11" t="s">
-        <v>892</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="93" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7362,69 +7383,69 @@
         <v>88</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>306</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="J93" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K93" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="94" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C94" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>959</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>961</v>
+      </c>
+      <c r="G94" s="9" t="s">
         <v>962</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="H94" s="11" t="s">
         <v>963</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="I94" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>965</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>966</v>
-      </c>
-      <c r="H94" s="11" t="s">
-        <v>967</v>
-      </c>
-      <c r="I94" s="11" t="s">
-        <v>968</v>
-      </c>
       <c r="J94" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K94" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7432,34 +7453,34 @@
         <v>89</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D95" s="8" t="s">
         <v>307</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I95" s="11" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="J95" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K95" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="96" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7467,34 +7488,34 @@
         <v>90</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>308</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="J96" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K96" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="97" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7502,7 +7523,7 @@
         <v>91</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C97" s="9" t="s">
         <v>233</v>
@@ -7511,25 +7532,25 @@
         <v>309</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J97" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K97" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="98" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7537,34 +7558,34 @@
         <v>92</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J98" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K98" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="99" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7578,28 +7599,28 @@
         <v>234</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H99" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="J99" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K99" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="100" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7610,101 +7631,101 @@
         <v>174</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H100" s="11" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="J100" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K100" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="101" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="16" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H101" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="J101" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K101" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="102" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A102" s="16" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="B102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="G102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="H102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="I102" s="21" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="J102" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K102" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="103" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7712,34 +7733,34 @@
         <v>95</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>310</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H103" s="11" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="J103" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="104" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7747,34 +7768,34 @@
         <v>96</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>311</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="J104" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K104" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="105" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7782,34 +7803,34 @@
         <v>97</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>312</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K105" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="106" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7817,42 +7838,42 @@
         <v>98</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>313</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="J106" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K106" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="107" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>235</v>
@@ -7861,25 +7882,25 @@
         <v>314</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="J107" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K107" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="108" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7896,25 +7917,25 @@
         <v>315</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H108" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="J108" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K108" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="109" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7922,34 +7943,34 @@
         <v>100</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>215</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H109" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J109" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K109" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7957,10 +7978,10 @@
         <v>101</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>316</v>
@@ -7969,22 +7990,22 @@
         <v>316</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H110" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -7992,34 +8013,34 @@
         <v>102</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>317</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H111" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J111" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K111" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8033,28 +8054,28 @@
         <v>221</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>365</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J112" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K112" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="113" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8062,7 +8083,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>205</v>
@@ -8074,22 +8095,22 @@
         <v>366</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H113" s="11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J113" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K113" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="114" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8097,34 +8118,34 @@
         <v>105</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>367</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>278</v>
       </c>
       <c r="H114" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>278</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8132,34 +8153,34 @@
         <v>106</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D115" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="116" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8167,10 +8188,10 @@
         <v>107</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D116" s="8" t="s">
         <v>320</v>
@@ -8179,22 +8200,22 @@
         <v>320</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H116" s="11" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J116" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K116" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="117" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8202,34 +8223,34 @@
         <v>108</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="D117" s="8" t="s">
         <v>321</v>
       </c>
       <c r="E117" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H117" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K117" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="118" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8237,7 +8258,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C118" s="9" t="s">
         <v>237</v>
@@ -8246,25 +8267,25 @@
         <v>322</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="J118" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K118" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="119" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8272,7 +8293,7 @@
         <v>110</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C119" s="9" t="s">
         <v>238</v>
@@ -8281,25 +8302,25 @@
         <v>323</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J119" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K119" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="120" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8307,34 +8328,34 @@
         <v>111</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D120" s="8" t="s">
         <v>324</v>
       </c>
       <c r="E120" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H120" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="J120" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K120" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="121" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8342,34 +8363,34 @@
         <v>112</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D121" s="8" t="s">
         <v>325</v>
       </c>
       <c r="E121" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G121" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H121" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J121" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="122" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8377,34 +8398,34 @@
         <v>113</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D122" s="8" t="s">
         <v>326</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H122" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J122" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K122" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="123" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8415,31 +8436,31 @@
         <v>175</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D123" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H123" s="11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="J123" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K123" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="124" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8447,34 +8468,34 @@
         <v>115</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C124" s="9" t="s">
         <v>239</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H124" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I124" s="11" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="J124" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K124" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="125" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8488,28 +8509,28 @@
         <v>240</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="J125" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K125" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="126" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8526,25 +8547,25 @@
         <v>327</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H126" s="11" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="J126" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K126" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="127" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8561,25 +8582,25 @@
         <v>328</v>
       </c>
       <c r="E127" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H127" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J127" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K127" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="128" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8593,28 +8614,28 @@
         <v>239</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H128" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="J128" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K128" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="129" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8622,34 +8643,34 @@
         <v>120</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D129" s="8" t="s">
         <v>329</v>
       </c>
       <c r="E129" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H129" s="11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J129" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K129" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="130" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8657,34 +8678,34 @@
         <v>121</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>330</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H130" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J130" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K130" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="131" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8692,34 +8713,34 @@
         <v>122</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>331</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H131" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J131" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K131" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="132" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8727,34 +8748,34 @@
         <v>123</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>332</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H132" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J132" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K132" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="133" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8762,34 +8783,34 @@
         <v>124</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>333</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H133" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J133" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K133" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8812,19 +8833,19 @@
         <v>224</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H134" s="11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J134" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K134" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="135" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8832,7 +8853,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C135" s="9" t="s">
         <v>244</v>
@@ -8841,25 +8862,25 @@
         <v>334</v>
       </c>
       <c r="E135" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H135" s="11" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J135" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K135" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="136" spans="1:11" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -8867,34 +8888,34 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D136" s="18" t="s">
         <v>335</v>
       </c>
       <c r="E136" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F136" s="18" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H136" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J136" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K136" s="11" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="137" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -8939,108 +8960,113 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A103:XFD108 A101:E101 G101:XFD101 A102 F102 J102:XFD102 A74:XFD100 A1:XFD51 A55:XFD56 B52:XFD54">
-    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72:B73 H72:XFD73 A69:XFD71 A66:B68 H66:XFD68 A64:XFD65 J59:XFD59 A58:XFD58 A57:B57 J57:XFD57 A59:B63 H60:XFD63 A116:XFD116 A109:B111 H109:XFD111 A118:XFD1048576 A117:B117 H117:XFD117 H113:XFD115 J112:XFD112 A113:B115 A112">
-    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="none">
+  <conditionalFormatting sqref="A72:B73 H72:XFD73 A71:XFD71 A66:B68 H66:XFD68 A64:XFD65 J59:XFD59 A58:XFD58 A57:B57 J57:XFD57 A59:B63 H60:XFD63 A116:XFD116 A109:B111 H109:XFD111 A118:XFD1048576 A117:B117 H117:XFD117 H113:XFD115 J112:XFD112 A113:B115 A112 A69:A70 J69:XFD70">
+    <cfRule type="containsText" dxfId="20" priority="28" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",A57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C68:G68">
-    <cfRule type="containsBlanks" dxfId="18" priority="22">
+    <cfRule type="containsBlanks" dxfId="19" priority="23">
       <formula>LEN(TRIM(C68))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:G73">
-    <cfRule type="containsBlanks" dxfId="17" priority="21">
+    <cfRule type="containsBlanks" dxfId="18" priority="22">
       <formula>LEN(TRIM(C72))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67:G67">
-    <cfRule type="containsBlanks" dxfId="16" priority="20">
+    <cfRule type="containsBlanks" dxfId="17" priority="21">
       <formula>LEN(TRIM(C67))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C66:G66">
-    <cfRule type="containsBlanks" dxfId="15" priority="19">
+    <cfRule type="containsBlanks" dxfId="16" priority="20">
       <formula>LEN(TRIM(C66))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:I57">
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",H57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:G57">
-    <cfRule type="containsBlanks" dxfId="13" priority="15">
+    <cfRule type="containsBlanks" dxfId="14" priority="16">
       <formula>LEN(TRIM(C57))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:I59">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",H59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:G59">
-    <cfRule type="containsBlanks" dxfId="11" priority="13">
+    <cfRule type="containsBlanks" dxfId="12" priority="14">
       <formula>LEN(TRIM(C59))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60:G62">
-    <cfRule type="containsBlanks" dxfId="10" priority="12">
+    <cfRule type="containsBlanks" dxfId="11" priority="13">
       <formula>LEN(TRIM(C60))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:G63">
-    <cfRule type="containsBlanks" dxfId="9" priority="11">
+    <cfRule type="containsBlanks" dxfId="10" priority="12">
       <formula>LEN(TRIM(C63))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:G109">
-    <cfRule type="containsBlanks" dxfId="8" priority="10">
+    <cfRule type="containsBlanks" dxfId="9" priority="11">
       <formula>LEN(TRIM(C109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:G110">
-    <cfRule type="containsBlanks" dxfId="7" priority="9">
+    <cfRule type="containsBlanks" dxfId="8" priority="10">
       <formula>LEN(TRIM(C110))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111:G111">
-    <cfRule type="containsBlanks" dxfId="6" priority="8">
+    <cfRule type="containsBlanks" dxfId="7" priority="9">
       <formula>LEN(TRIM(C111))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113:G113">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(C113))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114:G114">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:G115">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
       <formula>LEN(TRIM(C115))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:G117">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(C117))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",F101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B112:I112">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="none">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="none">
       <formula>NOT(ISERROR(SEARCH("none",B112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B69:I70">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"none"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
